--- a/excel/Exemplo-Dados.xlsx
+++ b/excel/Exemplo-Dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EF2397C-F0B7-42BE-948E-801E157129AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE2F685-6682-41DB-853A-228DCB372F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>dados</t>
-  </si>
-  <si>
-    <t>Usuário</t>
-  </si>
-  <si>
-    <t>User Apresentacao</t>
   </si>
   <si>
     <t>Email</t>
@@ -122,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,36 +189,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -248,8 +218,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,9 +231,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AA25"/>
+  <dimension ref="C1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,76 +568,71 @@
       </c>
     </row>
     <row r="3" spans="3:27">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:27">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="3:27">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="3:27">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="3:27">
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="3:27">
-      <c r="C8" s="14" t="s">
-        <v>8</v>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="8">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:27">
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="8">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="15" spans="3:27">
+      <c r="E15" s="10"/>
     </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="10"/>
+    <row r="24" spans="4:4">
+      <c r="D24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{8AEFAD0C-952C-4CE7-BFA9-98F242A4EFB9}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{0DB10733-6BBE-4926-9364-29B829EBFB97}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{8AEFAD0C-952C-4CE7-BFA9-98F242A4EFB9}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{0DB10733-6BBE-4926-9364-29B829EBFB97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
